--- a/crops/src/main/resources/webapp/office/pageoffice/demo-import-config.xlsx
+++ b/crops/src/main/resources/webapp/office/pageoffice/demo-import-config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="188">
   <si>
     <t>Excel导入配置-目录</t>
   </si>
@@ -522,91 +522,95 @@
   </si>
   <si>
     <t>白名单ID</t>
+  </si>
+  <si>
+    <t>OA_NO</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销活动</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARKETING</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVITY_NAME</t>
+  </si>
+  <si>
+    <t>ACTIVITY_START_TIME</t>
+  </si>
+  <si>
+    <t>ACTIVITY_ENT_TIME</t>
+  </si>
+  <si>
+    <t>TARGET_CUSTOMER</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVITY_STATUS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动名称</t>
+  </si>
+  <si>
+    <t>活动结束时间</t>
+  </si>
+  <si>
+    <t>ACTIVITY_URL</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动开始时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标客户</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动状态</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动网址</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>顺序号</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>OA_NO</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销活动</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MARKETING</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTIVITY_NAME</t>
-  </si>
-  <si>
-    <t>ACTIVITY_START_TIME</t>
-  </si>
-  <si>
-    <t>ACTIVITY_ENT_TIME</t>
-  </si>
-  <si>
-    <t>TARGET_CUSTOMER</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTIVITY_STATUS</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动名称</t>
-  </si>
-  <si>
-    <t>活动结束时间</t>
-  </si>
-  <si>
-    <t>ACTIVITY_URL</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动开始时间</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标客户</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动状态</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动网址</t>
+    <t>流水号</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1272,22 +1276,22 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1300,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1326,7 +1330,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1339,7 +1343,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1352,7 +1356,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1365,7 +1369,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1378,7 +1382,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -1391,7 +1395,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -1404,7 +1408,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -1417,7 +1421,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -1430,12 +1434,12 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>10</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
@@ -1506,52 +1510,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J12"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="19" customWidth="1"/>
     <col min="2" max="2" width="15" style="19" customWidth="1"/>
     <col min="3" max="3" width="9" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="19" customWidth="1"/>
     <col min="5" max="6" width="9" style="19" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="19" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" style="19" customWidth="1"/>
     <col min="9" max="9" width="22" style="19" customWidth="1"/>
-    <col min="10" max="10" width="20.875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" style="19" customWidth="1"/>
     <col min="11" max="257" width="9" style="19" customWidth="1"/>
     <col min="258" max="258" width="15" style="19" customWidth="1"/>
     <col min="259" max="259" width="9" style="19" customWidth="1"/>
-    <col min="260" max="260" width="14.125" style="19" customWidth="1"/>
+    <col min="260" max="260" width="14.109375" style="19" customWidth="1"/>
     <col min="261" max="262" width="9" style="19" customWidth="1"/>
-    <col min="263" max="263" width="16.25" style="19" customWidth="1"/>
-    <col min="264" max="264" width="20.125" style="19" customWidth="1"/>
+    <col min="263" max="263" width="16.21875" style="19" customWidth="1"/>
+    <col min="264" max="264" width="20.109375" style="19" customWidth="1"/>
     <col min="265" max="265" width="22" style="19" customWidth="1"/>
-    <col min="266" max="266" width="20.875" style="19" customWidth="1"/>
+    <col min="266" max="266" width="20.88671875" style="19" customWidth="1"/>
     <col min="267" max="513" width="9" style="19" customWidth="1"/>
     <col min="514" max="514" width="15" style="19" customWidth="1"/>
     <col min="515" max="515" width="9" style="19" customWidth="1"/>
-    <col min="516" max="516" width="14.125" style="19" customWidth="1"/>
+    <col min="516" max="516" width="14.109375" style="19" customWidth="1"/>
     <col min="517" max="518" width="9" style="19" customWidth="1"/>
-    <col min="519" max="519" width="16.25" style="19" customWidth="1"/>
-    <col min="520" max="520" width="20.125" style="19" customWidth="1"/>
+    <col min="519" max="519" width="16.21875" style="19" customWidth="1"/>
+    <col min="520" max="520" width="20.109375" style="19" customWidth="1"/>
     <col min="521" max="521" width="22" style="19" customWidth="1"/>
-    <col min="522" max="522" width="20.875" style="19" customWidth="1"/>
+    <col min="522" max="522" width="20.88671875" style="19" customWidth="1"/>
     <col min="523" max="769" width="9" style="19" customWidth="1"/>
     <col min="770" max="770" width="15" style="19" customWidth="1"/>
     <col min="771" max="771" width="9" style="19" customWidth="1"/>
-    <col min="772" max="772" width="14.125" style="19" customWidth="1"/>
+    <col min="772" max="772" width="14.109375" style="19" customWidth="1"/>
     <col min="773" max="774" width="9" style="19" customWidth="1"/>
-    <col min="775" max="775" width="16.25" style="19" customWidth="1"/>
-    <col min="776" max="776" width="20.125" style="19" customWidth="1"/>
+    <col min="775" max="775" width="16.21875" style="19" customWidth="1"/>
+    <col min="776" max="776" width="20.109375" style="19" customWidth="1"/>
     <col min="777" max="777" width="22" style="19" customWidth="1"/>
-    <col min="778" max="778" width="20.875" style="19" customWidth="1"/>
+    <col min="778" max="778" width="20.88671875" style="19" customWidth="1"/>
     <col min="779" max="1025" width="9" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -1569,7 +1571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>26</v>
       </c>
@@ -1621,7 +1623,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>31</v>
       </c>
@@ -1641,7 +1643,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>34</v>
       </c>
@@ -1655,7 +1657,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
@@ -1687,7 +1689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1711,7 +1713,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1737,7 +1739,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1789,7 +1791,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1817,7 +1819,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1889,7 +1891,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1025" width="9" customWidth="1"/>
   </cols>
@@ -1905,24 +1907,24 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -1935,18 +1937,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>22</v>
@@ -1965,7 +1967,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>26</v>
       </c>
@@ -1987,7 +1989,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>31</v>
       </c>
@@ -2007,7 +2009,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>34</v>
       </c>
@@ -2021,7 +2023,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2064,9 +2066,11 @@
         <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="14"/>
+        <v>187</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F7" s="14" t="s">
         <v>51</v>
       </c>
@@ -2077,21 +2081,21 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>51</v>
@@ -2103,21 +2107,21 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>51</v>
@@ -2129,21 +2133,21 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>51</v>
@@ -2155,21 +2159,21 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>51</v>
@@ -2181,21 +2185,21 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>47</v>
@@ -2207,21 +2211,21 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>47</v>
@@ -2280,22 +2284,22 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="1025" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="11" max="1025" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -2341,7 +2345,7 @@
       </c>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
@@ -2363,7 +2367,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
@@ -2383,7 +2387,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -2397,7 +2401,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2454,7 +2458,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2480,7 +2484,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2505,7 +2509,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2535,7 +2539,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -2561,7 +2565,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2588,7 +2592,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -2694,22 +2698,22 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="1025" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="11" max="1025" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -2727,7 +2731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -2755,7 +2759,7 @@
       </c>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
@@ -2777,7 +2781,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
@@ -2797,7 +2801,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -2811,7 +2815,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2843,7 +2847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2857,7 +2861,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>47</v>
@@ -2868,7 +2872,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2894,7 +2898,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2919,7 +2923,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2945,7 +2949,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -2970,7 +2974,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -2996,7 +3000,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -3022,7 +3026,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -3048,7 +3052,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3073,7 +3077,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3099,7 +3103,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3173,19 +3177,19 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="46.125" customWidth="1"/>
-    <col min="11" max="1025" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="46.109375" customWidth="1"/>
+    <col min="11" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -3231,7 +3235,7 @@
       </c>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
@@ -3253,7 +3257,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
@@ -3273,7 +3277,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -3287,7 +3291,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3319,7 +3323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -3344,7 +3348,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -3370,7 +3374,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -3395,7 +3399,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -3421,7 +3425,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -3446,7 +3450,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -3472,7 +3476,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -3498,7 +3502,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -3524,7 +3528,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -3549,7 +3553,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -3623,21 +3627,21 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="20.875" customWidth="1"/>
-    <col min="11" max="1025" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -3655,7 +3659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -3683,7 +3687,7 @@
       </c>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
@@ -3705,7 +3709,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
@@ -3725,7 +3729,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -3739,7 +3743,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -3796,7 +3800,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -3824,7 +3828,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -3895,21 +3899,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="18.125" customWidth="1"/>
-    <col min="11" max="1025" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -3927,7 +3931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -3955,7 +3959,7 @@
       </c>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
@@ -3977,7 +3981,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
@@ -3997,7 +4001,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -4011,7 +4015,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -4043,7 +4047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -4069,7 +4073,7 @@
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -4095,7 +4099,7 @@
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -4121,7 +4125,7 @@
       </c>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -4146,7 +4150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -4171,7 +4175,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -4196,7 +4200,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -4269,21 +4273,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="1025" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -4301,7 +4305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -4329,7 +4333,7 @@
       </c>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
@@ -4351,7 +4355,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
@@ -4371,7 +4375,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -4385,7 +4389,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -4417,12 +4421,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>44</v>
@@ -4443,7 +4447,7 @@
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -4517,21 +4521,21 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="20.875" customWidth="1"/>
-    <col min="11" max="1025" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -4549,7 +4553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -4577,7 +4581,7 @@
       </c>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
@@ -4599,7 +4603,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
@@ -4619,7 +4623,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -4633,7 +4637,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -4665,7 +4669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -4691,7 +4695,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -4717,7 +4721,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -4743,7 +4747,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -4769,7 +4773,7 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -4797,7 +4801,7 @@
       </c>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -4873,21 +4877,21 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="20.875" customWidth="1"/>
-    <col min="11" max="1025" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -4905,7 +4909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -4933,7 +4937,7 @@
       </c>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
@@ -4955,7 +4959,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
@@ -4975,7 +4979,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -4989,7 +4993,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -5021,7 +5025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -5045,7 +5049,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -5071,7 +5075,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -5097,7 +5101,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
